--- a/Analysis/pilot00/pilot00_coded_updated.xlsx
+++ b/Analysis/pilot00/pilot00_coded_updated.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Analysis\pilot00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92958370-ADD6-45E2-9FFF-110F9DA6D93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD1A94-28F4-46BE-95E7-D54DC24F17F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot00_coded_updated" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="156">
   <si>
     <t>Column1</t>
   </si>
@@ -501,6 +501,15 @@
   </si>
   <si>
     <t>Mean_Duration</t>
+  </si>
+  <si>
+    <t>SwitchType - RepeatType  = 1,040 - 0,926 = 0,114</t>
+  </si>
+  <si>
+    <t>SwitchSpeak - RepeatSpeak = 0,877 - 0,739 = 0,138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite being slower in typing overall, switching from typing to speaking seems to be more costly than switching from speaking to typing </t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1021,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1023,6 +1032,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2690,6 +2702,1083 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[pilot00_coded_updated.xlsx]RT!PivotTable4</c:name>
+    <c:fmtId val="2"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Mean RT per condition per response modality</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RT!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speak</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RT!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>repeat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RT!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.73894618749999974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87725887499999788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26D0-4379-9C30-CD440DE8A52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>RT!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>type</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="el-GR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>RT!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>repeat</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RT!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.92575999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0401071428571427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26D0-4379-9C30-CD440DE8A52E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="87960768"/>
+        <c:axId val="106449712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="87960768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Condition</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="106449712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="106449712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Mean RT (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="el-GR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="el-GR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87960768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="el-GR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="el-GR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[pilot00_coded_updated.xlsx]Duration!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
@@ -3470,6 +4559,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5018,6 +6147,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5092,6 +6724,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE9E6FE-FC03-4680-9A83-BCBF116C00A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19922,7 +21592,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -20424,7 +22094,7 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="6">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -20462,6 +22132,30 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -33496,10 +35190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33756,9 +35450,25 @@
         <v>0.88876548717948634</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -33766,8 +35476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33860,7 +35570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB6EAB2-5B93-4047-9398-362531BD805A}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>

--- a/Analysis/pilot00/pilot00_coded_updated.xlsx
+++ b/Analysis/pilot00/pilot00_coded_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Analysis\pilot00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AD1A94-28F4-46BE-95E7-D54DC24F17F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1450A924-055C-4348-9CCC-6DEC6FAA4B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot00_coded_updated" sheetId="1" r:id="rId1"/>
@@ -22613,7 +22613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -35476,7 +35476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/Analysis/pilot00/pilot00_coded_updated.xlsx
+++ b/Analysis/pilot00/pilot00_coded_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Analysis\pilot00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1450A924-055C-4348-9CCC-6DEC6FAA4B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A26C640-13AF-4670-8097-4ECC9FB187D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot00_coded_updated" sheetId="1" r:id="rId1"/>
@@ -22613,7 +22613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -35192,7 +35192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -35476,7 +35476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/Analysis/pilot00/pilot00_coded_updated.xlsx
+++ b/Analysis/pilot00/pilot00_coded_updated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Analysis\pilot00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FA38A7-B44D-4A18-A350-99B78FAD87D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2297E7EE-2FE0-4BC0-9DE4-55A936BF4474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="161">
   <si>
     <t>Column1</t>
   </si>
@@ -497,12 +497,6 @@
     <t>Mean_Duration</t>
   </si>
   <si>
-    <t>SwitchType - RepeatType  = 1,040 - 0,926 = 0,114</t>
-  </si>
-  <si>
-    <t>SwitchSpeak - RepeatSpeak = 0,877 - 0,739 = 0,138</t>
-  </si>
-  <si>
     <t xml:space="preserve">Despite being slower in typing overall, switching from typing to speaking seems to be more costly than switching from speaking to typing </t>
   </si>
   <si>
@@ -516,6 +510,21 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>SwitchType - RepeatType  = 1.040 - 0.926 = 0.114</t>
+  </si>
+  <si>
+    <t>SwitchSpeak - RepeatSpeak = 0.877 - 0.739 = 0.138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">δSpeak / RTSpeak = 0.138 / 0.739 </t>
+  </si>
+  <si>
+    <t>δType / RTType = 0.114 / 0.926</t>
+  </si>
+  <si>
+    <t>is this difference significant?</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1036,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1043,6 +1052,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -35492,7 +35502,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35751,30 +35761,57 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.186738836265223</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.123110151187905</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" s="8">
         <v>0.48316100000000001</v>
@@ -35785,7 +35822,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="8">
         <v>0.72099999999999997</v>
